--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-IV.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-IV.xlsx
@@ -1,316 +1,268 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingcrow-my.sharepoint.com/personal/elisabeth_devries_crow_nl/Documents/Documents/GitHub/NLCS/tabellen/concept/5.1/objectentabellen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{261A3C4A-B46A-4DF5-A195-66330084D554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{809A4761-4BEE-4983-8B69-D57E635755F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7A43101-F76B-46C8-81B9-21727E42C2C8}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{B5D11BD1-5AEF-4C8F-A678-4522BE6C4ED0}"/>
+    <workbookView xWindow="-51720" yWindow="3270" windowWidth="51840" windowHeight="21120" xr2:uid="{31706BC5-E536-4548-A97D-E46AB6752431}"/>
   </bookViews>
   <sheets>
-    <sheet name="objecten-concept-5.1-IV-install" sheetId="1" r:id="rId1"/>
+    <sheet name="objecten-concept-5.1-IV" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-IV-install'!$A$1:$BS$5</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="81">
+  <si>
+    <t>omschrijving</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>underscore</t>
+  </si>
+  <si>
+    <t>discipline</t>
+  </si>
+  <si>
+    <t>underscore2</t>
+  </si>
+  <si>
+    <t>hoofdgroep</t>
+  </si>
+  <si>
+    <t>underscore3</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>underscore4</t>
+  </si>
+  <si>
+    <t>subobject01</t>
+  </si>
+  <si>
+    <t>underscore5</t>
+  </si>
+  <si>
+    <t>subobject02</t>
+  </si>
+  <si>
+    <t>underscore6</t>
+  </si>
+  <si>
+    <t>subobject03</t>
+  </si>
+  <si>
+    <t>underscore7</t>
+  </si>
+  <si>
+    <t>subobject04</t>
+  </si>
+  <si>
+    <t>underscore8</t>
+  </si>
+  <si>
+    <t>subobject05</t>
+  </si>
+  <si>
+    <t>streepje</t>
+  </si>
+  <si>
+    <t>bewerking</t>
+  </si>
+  <si>
+    <t>streepje2</t>
+  </si>
+  <si>
+    <t>schaal</t>
+  </si>
+  <si>
+    <t>aobject</t>
+  </si>
+  <si>
+    <t>sobject</t>
+  </si>
+  <si>
+    <t>laagnaam</t>
+  </si>
+  <si>
+    <t>lw_b</t>
+  </si>
+  <si>
+    <t>kl_b</t>
+  </si>
+  <si>
+    <t>kl_b_a</t>
+  </si>
+  <si>
+    <t>kl_b_gd</t>
+  </si>
+  <si>
+    <t>kl_b_gn</t>
+  </si>
+  <si>
+    <t>kl_b_v</t>
+  </si>
+  <si>
+    <t>lt_b</t>
+  </si>
+  <si>
+    <t>lw_n</t>
+  </si>
+  <si>
+    <t>kl_n</t>
+  </si>
+  <si>
+    <t>kl_n_a</t>
+  </si>
+  <si>
+    <t>kl_n_gd</t>
+  </si>
+  <si>
+    <t>kl_n_gn</t>
+  </si>
+  <si>
+    <t>kl_n_v</t>
+  </si>
+  <si>
+    <t>lt_n</t>
+  </si>
+  <si>
+    <t>lw_v</t>
+  </si>
+  <si>
+    <t>kl_v</t>
+  </si>
+  <si>
+    <t>kl_v_a</t>
+  </si>
+  <si>
+    <t>kl_v_gd</t>
+  </si>
+  <si>
+    <t>kl_v_gn</t>
+  </si>
+  <si>
+    <t>kl_v_v</t>
+  </si>
+  <si>
+    <t>lt_v</t>
+  </si>
+  <si>
+    <t>lw_t</t>
+  </si>
+  <si>
+    <t>kl_t</t>
+  </si>
+  <si>
+    <t>kl_t_a</t>
+  </si>
+  <si>
+    <t>kl_t_gd</t>
+  </si>
+  <si>
+    <t>kl_t_gn</t>
+  </si>
+  <si>
+    <t>kl_t_v</t>
+  </si>
+  <si>
+    <t>lt_t</t>
+  </si>
+  <si>
+    <t>vrkl_kort</t>
+  </si>
+  <si>
+    <t>vrkl_lang</t>
+  </si>
+  <si>
+    <t>id_nummer</t>
+  </si>
+  <si>
+    <t>kind_van</t>
+  </si>
   <si>
     <t>objectURI</t>
   </si>
   <si>
-    <t>hoofdgroepURI</t>
-  </si>
-  <si>
-    <t>hoofdgroep</t>
-  </si>
-  <si>
-    <t>id_nummer</t>
-  </si>
-  <si>
-    <t>omschrijving</t>
-  </si>
-  <si>
     <t>kind_vanURI</t>
   </si>
   <si>
-    <t>kind_van</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>discipline</t>
-  </si>
-  <si>
-    <t>lw_bURI</t>
-  </si>
-  <si>
-    <t>lw_b</t>
-  </si>
-  <si>
-    <t>kl_bURI</t>
-  </si>
-  <si>
-    <t>kl_b</t>
-  </si>
-  <si>
-    <t>kl_b_aURI</t>
-  </si>
-  <si>
-    <t>kl_b_a</t>
-  </si>
-  <si>
-    <t>kl_b_gdURI</t>
-  </si>
-  <si>
-    <t>kl_b_gd</t>
-  </si>
-  <si>
-    <t>kl_b_gnURI</t>
-  </si>
-  <si>
-    <t>kl_b_gn</t>
-  </si>
-  <si>
-    <t>kl_b_vURI</t>
-  </si>
-  <si>
-    <t>kl_b_v</t>
-  </si>
-  <si>
-    <t>lt_bURI</t>
-  </si>
-  <si>
-    <t>lt_b</t>
-  </si>
-  <si>
-    <t>lw_nURI</t>
-  </si>
-  <si>
-    <t>lw_n</t>
-  </si>
-  <si>
-    <t>kl_nURI</t>
-  </si>
-  <si>
-    <t>kl_n</t>
-  </si>
-  <si>
-    <t>kl_n_aURI</t>
-  </si>
-  <si>
-    <t>kl_n_a</t>
-  </si>
-  <si>
-    <t>kl_n_gdURI</t>
-  </si>
-  <si>
-    <t>kl_n_gd</t>
-  </si>
-  <si>
-    <t>kl_n_gnURI</t>
-  </si>
-  <si>
-    <t>kl_n_gn</t>
-  </si>
-  <si>
-    <t>kl_n_vURI</t>
-  </si>
-  <si>
-    <t>kl_n_v</t>
-  </si>
-  <si>
-    <t>lt_nURI</t>
-  </si>
-  <si>
-    <t>lt_n</t>
-  </si>
-  <si>
-    <t>lw_tURI</t>
-  </si>
-  <si>
-    <t>lw_t</t>
-  </si>
-  <si>
-    <t>kl_tURI</t>
-  </si>
-  <si>
-    <t>kl_t</t>
-  </si>
-  <si>
-    <t>kl_t_aURI</t>
-  </si>
-  <si>
-    <t>kl_t_a</t>
-  </si>
-  <si>
-    <t>kl_t_gdURI</t>
-  </si>
-  <si>
-    <t>kl_t_gd</t>
-  </si>
-  <si>
-    <t>kl_t_gnURI</t>
-  </si>
-  <si>
-    <t>kl_t_gn</t>
-  </si>
-  <si>
-    <t>kl_t_vURI</t>
-  </si>
-  <si>
-    <t>kl_t_v</t>
-  </si>
-  <si>
-    <t>lt_tURI</t>
-  </si>
-  <si>
-    <t>lt_t</t>
-  </si>
-  <si>
-    <t>lw_vURI</t>
-  </si>
-  <si>
-    <t>lw_v</t>
-  </si>
-  <si>
-    <t>kl_vURI</t>
-  </si>
-  <si>
-    <t>kl_v</t>
-  </si>
-  <si>
-    <t>kl_v_aURI</t>
-  </si>
-  <si>
-    <t>kl_v_a</t>
-  </si>
-  <si>
-    <t>kl_v_gdURI</t>
-  </si>
-  <si>
-    <t>kl_v_gd</t>
-  </si>
-  <si>
-    <t>kl_v_gnURI</t>
-  </si>
-  <si>
-    <t>kl_v_gn</t>
-  </si>
-  <si>
-    <t>kl_v_vURI</t>
-  </si>
-  <si>
-    <t>kl_v_v</t>
-  </si>
-  <si>
-    <t>lt_vURI</t>
-  </si>
-  <si>
-    <t>lt_v</t>
-  </si>
-  <si>
-    <t>element</t>
-  </si>
-  <si>
-    <t>sobjectURI</t>
-  </si>
-  <si>
-    <t>sobject</t>
-  </si>
-  <si>
-    <t>aobjectURI</t>
-  </si>
-  <si>
-    <t>aobject</t>
-  </si>
-  <si>
-    <t>vrkl_kort</t>
+    <t>DRI_DRAAGCONSTRUCTIE</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>DRI</t>
+  </si>
+  <si>
+    <t>DRAAGCONSTRUCTIE</t>
+  </si>
+  <si>
+    <t>*_**_IV_DRI_DRAAGCONSTRUCTIE</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>CONTINUOUS</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>V-CONTINUOUS-SO</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/753c7ead-1159-4009-a803-f0428ee5afab</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/bea7d7a4-9cf7-4f39-a22d-f4f2706f7b8e</t>
-  </si>
-  <si>
-    <t>IV</t>
-  </si>
-  <si>
-    <t>DRI_DRAAGCONSTRUCTIE</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/df140fff-48cc-41c2-9e98-6350883b31bb</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/bacc787a-3288-4f27-a233-6a58ce3d5c65</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/7061fda8-0f02-4af5-a65e-6cca6c05bfea</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/50f7e6bd-88c4-4cb6-a60b-64408590c6a3</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/21484fcb-4d9f-4e86-a9f5-fd6d855c7437</t>
-  </si>
-  <si>
-    <t>CONTINUOUS</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/fa7f8757-afa0-4bbc-b556-734091491e54</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/270c7274-5fc6-4b2c-804f-0eeafcef2cd8</t>
-  </si>
-  <si>
-    <t>V-CONTINUOUS-SO</t>
+    <t>SCHEPENTELLER</t>
+  </si>
+  <si>
+    <t>*_**_IV_SCHEPENTELLER</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/19b467bd-ada4-45cb-b12e-d8e25fd273fe</t>
   </si>
   <si>
-    <t>SCHEPENTELLER</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/6aa127ab-804d-4c1b-8182-76b31acb838e</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/acc772c2-bc06-4937-91a4-017342e5112c</t>
+    <t>LICHTOPSTAND</t>
+  </si>
+  <si>
+    <t>*_**_IV_LICHTOPSTAND</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/d611f5c9-29c1-49eb-9a5f-7d4bf3de054e</t>
   </si>
   <si>
-    <t>LICHTOPSTAND</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/5f86d069-e38a-406c-b82b-6889047ba877</t>
-  </si>
-  <si>
-    <t>DRI</t>
+    <t>*_**_IV_DRI</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1170,19 +1122,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518F92A7-AFDC-4600-929D-B2F2074CB4D6}">
-  <dimension ref="A1:BS5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C943F81-7A01-4E25-A337-DC0D27082E95}">
+  <dimension ref="A1:BG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1360,819 +1315,577 @@
       <c r="BG1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="B2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" t="s">
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="Z2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="AA2">
+        <v>7</v>
+      </c>
+      <c r="AB2">
+        <v>7</v>
+      </c>
+      <c r="AC2">
+        <v>7</v>
+      </c>
+      <c r="AD2">
+        <v>7</v>
+      </c>
+      <c r="AE2">
+        <v>253</v>
+      </c>
+      <c r="AF2" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="AG2" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="AH2">
+        <v>7</v>
+      </c>
+      <c r="AI2">
+        <v>7</v>
+      </c>
+      <c r="AJ2">
+        <v>7</v>
+      </c>
+      <c r="AK2">
+        <v>7</v>
+      </c>
+      <c r="AL2">
+        <v>253</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO2">
+        <v>7</v>
+      </c>
+      <c r="AP2">
+        <v>7</v>
+      </c>
+      <c r="AQ2">
+        <v>7</v>
+      </c>
+      <c r="AR2">
+        <v>7</v>
+      </c>
+      <c r="AS2">
+        <v>253</v>
+      </c>
+      <c r="AT2" t="s">
         <v>70</v>
       </c>
+      <c r="AU2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV2">
+        <v>7</v>
+      </c>
+      <c r="AW2">
+        <v>7</v>
+      </c>
+      <c r="AX2">
+        <v>7</v>
+      </c>
+      <c r="AY2">
+        <v>7</v>
+      </c>
+      <c r="AZ2">
+        <v>253</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD2">
+        <v>2539</v>
+      </c>
+      <c r="BE2">
+        <v>2538</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3">
+        <v>170</v>
+      </c>
+      <c r="AB3">
+        <v>170</v>
+      </c>
+      <c r="AC3">
+        <v>170</v>
+      </c>
+      <c r="AD3">
+        <v>170</v>
+      </c>
+      <c r="AE3">
+        <v>254</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH3">
+        <v>170</v>
+      </c>
+      <c r="AI3">
+        <v>170</v>
+      </c>
+      <c r="AJ3">
+        <v>170</v>
+      </c>
+      <c r="AK3">
+        <v>170</v>
+      </c>
+      <c r="AL3">
+        <v>254</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO3">
+        <v>170</v>
+      </c>
+      <c r="AP3">
+        <v>170</v>
+      </c>
+      <c r="AQ3">
+        <v>170</v>
+      </c>
+      <c r="AR3">
+        <v>170</v>
+      </c>
+      <c r="AS3">
+        <v>254</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV3">
+        <v>170</v>
+      </c>
+      <c r="AW3">
+        <v>170</v>
+      </c>
+      <c r="AX3">
+        <v>170</v>
+      </c>
+      <c r="AY3">
+        <v>170</v>
+      </c>
+      <c r="AZ3">
+        <v>254</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD3">
+        <v>2945</v>
+      </c>
+      <c r="BF3" t="s">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2">
-        <v>2538</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>76</v>
       </c>
-      <c r="I2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2">
-        <v>170</v>
-      </c>
-      <c r="N2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O2">
-        <v>172</v>
-      </c>
-      <c r="P2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q2">
-        <v>170</v>
-      </c>
-      <c r="R2" t="s">
-        <v>90</v>
-      </c>
-      <c r="S2">
-        <v>170</v>
-      </c>
-      <c r="T2" t="s">
-        <v>81</v>
-      </c>
-      <c r="U2">
-        <v>253</v>
-      </c>
-      <c r="V2" t="s">
-        <v>82</v>
-      </c>
-      <c r="W2" t="s">
-        <v>83</v>
-      </c>
-      <c r="X2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA2">
-        <v>170</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC2">
-        <v>172</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE2">
-        <v>170</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG2">
-        <v>170</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI2">
-        <v>253</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO2">
-        <v>170</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ2">
-        <v>172</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS2">
-        <v>170</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU2">
-        <v>170</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW2">
-        <v>253</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BC2">
-        <v>170</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE2">
-        <v>172</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BG2">
-        <v>170</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BI2">
-        <v>170</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BK2">
-        <v>253</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3">
-        <v>2539</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3">
-        <v>2538</v>
-      </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3">
-        <v>7</v>
-      </c>
-      <c r="N3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3">
-        <v>7</v>
-      </c>
-      <c r="P3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q3">
-        <v>7</v>
-      </c>
-      <c r="R3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S3">
-        <v>7</v>
-      </c>
-      <c r="T3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U3">
-        <v>253</v>
-      </c>
-      <c r="V3" t="s">
-        <v>82</v>
-      </c>
-      <c r="W3" t="s">
-        <v>83</v>
-      </c>
-      <c r="X3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA3">
-        <v>7</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC3">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE3">
-        <v>7</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG3">
-        <v>7</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI3">
-        <v>253</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO3">
-        <v>7</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ3">
-        <v>7</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS3">
-        <v>7</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU3">
-        <v>7</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW3">
-        <v>253</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BC3">
-        <v>7</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE3">
-        <v>7</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG3">
-        <v>7</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BI3">
-        <v>7</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BK3">
-        <v>253</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>86</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>92</v>
-      </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4">
-        <v>2544</v>
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
       </c>
       <c r="H4" t="s">
         <v>76</v>
       </c>
       <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y4" t="s">
         <v>77</v>
       </c>
-      <c r="J4" t="s">
+      <c r="Z4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4">
+        <v>170</v>
+      </c>
+      <c r="AB4">
+        <v>172</v>
+      </c>
+      <c r="AC4">
+        <v>170</v>
+      </c>
+      <c r="AD4">
+        <v>170</v>
+      </c>
+      <c r="AE4">
+        <v>253</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH4">
+        <v>170</v>
+      </c>
+      <c r="AI4">
+        <v>172</v>
+      </c>
+      <c r="AJ4">
+        <v>170</v>
+      </c>
+      <c r="AK4">
+        <v>170</v>
+      </c>
+      <c r="AL4">
+        <v>253</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO4">
+        <v>170</v>
+      </c>
+      <c r="AP4">
+        <v>172</v>
+      </c>
+      <c r="AQ4">
+        <v>170</v>
+      </c>
+      <c r="AR4">
+        <v>170</v>
+      </c>
+      <c r="AS4">
+        <v>253</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV4">
+        <v>170</v>
+      </c>
+      <c r="AW4">
+        <v>172</v>
+      </c>
+      <c r="AX4">
+        <v>170</v>
+      </c>
+      <c r="AY4">
+        <v>170</v>
+      </c>
+      <c r="AZ4">
+        <v>253</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD4">
+        <v>2544</v>
+      </c>
+      <c r="BF4" t="s">
         <v>78</v>
       </c>
-      <c r="K4" t="s">
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" t="s">
+        <v>80</v>
+      </c>
+      <c r="U5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
         <v>79</v>
       </c>
-      <c r="L4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4">
-        <v>170</v>
-      </c>
-      <c r="N4" t="s">
-        <v>94</v>
-      </c>
-      <c r="O4">
+      <c r="Z5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA5">
+        <v>170</v>
+      </c>
+      <c r="AB5">
         <v>172</v>
       </c>
-      <c r="P4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q4">
-        <v>170</v>
-      </c>
-      <c r="R4" t="s">
-        <v>90</v>
-      </c>
-      <c r="S4">
-        <v>170</v>
-      </c>
-      <c r="T4" t="s">
-        <v>81</v>
-      </c>
-      <c r="U4">
+      <c r="AC5">
+        <v>170</v>
+      </c>
+      <c r="AD5">
+        <v>170</v>
+      </c>
+      <c r="AE5">
         <v>253</v>
       </c>
-      <c r="V4" t="s">
-        <v>82</v>
-      </c>
-      <c r="W4" t="s">
-        <v>83</v>
-      </c>
-      <c r="X4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA4">
-        <v>170</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC4">
+      <c r="AF5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH5">
+        <v>170</v>
+      </c>
+      <c r="AI5">
         <v>172</v>
       </c>
-      <c r="AD4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE4">
-        <v>170</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG4">
-        <v>170</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI4">
+      <c r="AJ5">
+        <v>170</v>
+      </c>
+      <c r="AK5">
+        <v>170</v>
+      </c>
+      <c r="AL5">
         <v>253</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO4">
-        <v>170</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ4">
+      <c r="AM5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO5">
+        <v>170</v>
+      </c>
+      <c r="AP5">
         <v>172</v>
       </c>
-      <c r="AR4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS4">
-        <v>170</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU4">
-        <v>170</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW4">
+      <c r="AQ5">
+        <v>170</v>
+      </c>
+      <c r="AR5">
+        <v>170</v>
+      </c>
+      <c r="AS5">
         <v>253</v>
       </c>
-      <c r="AX4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BC4">
-        <v>170</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE4">
+      <c r="AT5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV5">
+        <v>170</v>
+      </c>
+      <c r="AW5">
         <v>172</v>
       </c>
-      <c r="BF4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BG4">
-        <v>170</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BI4">
-        <v>170</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BK4">
+      <c r="AX5">
+        <v>170</v>
+      </c>
+      <c r="AY5">
+        <v>170</v>
+      </c>
+      <c r="AZ5">
         <v>253</v>
       </c>
-      <c r="BL4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="BA5" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD5">
+        <v>2538</v>
+      </c>
+      <c r="BF5" t="s">
         <v>72</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5">
-        <v>2945</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5">
-        <v>170</v>
-      </c>
-      <c r="N5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5">
-        <v>170</v>
-      </c>
-      <c r="P5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q5">
-        <v>170</v>
-      </c>
-      <c r="R5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S5">
-        <v>170</v>
-      </c>
-      <c r="T5" t="s">
-        <v>91</v>
-      </c>
-      <c r="U5">
-        <v>254</v>
-      </c>
-      <c r="V5" t="s">
-        <v>82</v>
-      </c>
-      <c r="W5" t="s">
-        <v>83</v>
-      </c>
-      <c r="X5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA5">
-        <v>170</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC5">
-        <v>170</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE5">
-        <v>170</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG5">
-        <v>170</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI5">
-        <v>254</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO5">
-        <v>170</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ5">
-        <v>170</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS5">
-        <v>170</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU5">
-        <v>170</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AW5">
-        <v>254</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>90</v>
-      </c>
-      <c r="BC5">
-        <v>170</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>90</v>
-      </c>
-      <c r="BE5">
-        <v>170</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>90</v>
-      </c>
-      <c r="BG5">
-        <v>170</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>90</v>
-      </c>
-      <c r="BI5">
-        <v>170</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK5">
-        <v>254</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>86</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BS5" xr:uid="{518F92A7-AFDC-4600-929D-B2F2074CB4D6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS5">
-      <sortCondition ref="E1:E5"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>